--- a/example.xlsx
+++ b/example.xlsx
@@ -569,7 +569,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="4.62" customWidth="1" min="1" max="1"/>
     <col width="11.58" customWidth="1" min="2" max="2"/>
@@ -607,7 +607,7 @@
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>2022001</t>
+          <t>2022005</t>
         </is>
       </c>
     </row>
@@ -733,11 +733,7 @@
           <t>CZ25153021</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>Dodavatel je plátce DPH</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>DIČ:</t>
@@ -788,7 +784,7 @@
       </c>
       <c r="K15" s="5" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-30</t>
         </is>
       </c>
     </row>
@@ -805,7 +801,7 @@
       </c>
       <c r="K16" s="5" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-30</t>
         </is>
       </c>
     </row>
@@ -822,7 +818,7 @@
       </c>
       <c r="K17" s="5" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-23</t>
         </is>
       </c>
     </row>
@@ -864,21 +860,21 @@
     <row r="21" ht="24" customHeight="1">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>ewffew</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="B21" s="12" t="n"/>
       <c r="C21" s="12" t="n"/>
       <c r="D21" s="12" t="n"/>
       <c r="E21" s="13" t="n">
-        <v>213</v>
+        <v>2500</v>
       </c>
       <c r="F21" s="14" t="n">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="G21" s="12" t="n"/>
       <c r="H21" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="16">
         <f>IF(AND(E21="",F21=""),"",E21*F21)</f>
@@ -892,14 +888,24 @@
       <c r="L21" s="12" t="n"/>
     </row>
     <row r="22" ht="24" customHeight="1">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>Motorka</t>
+        </is>
+      </c>
       <c r="B22" s="12" t="n"/>
       <c r="C22" s="12" t="n"/>
       <c r="D22" s="12" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="14" t="n"/>
+      <c r="E22" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>21</v>
+      </c>
       <c r="G22" s="12" t="n"/>
-      <c r="H22" s="15" t="n"/>
+      <c r="H22" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="I22" s="16">
         <f>IF(AND(E22="",F22=""),"",E22*F22)</f>
         <v/>
